--- a/data/20180617_muc_maa.xlsx
+++ b/data/20180617_muc_maa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="36">
   <si>
     <t>airline</t>
   </si>
@@ -34,6 +34,12 @@
     <t>dayInAdvance</t>
   </si>
   <si>
+    <t>departMonth</t>
+  </si>
+  <si>
+    <t>returnMonth</t>
+  </si>
+  <si>
     <t>Etihad Airways</t>
   </si>
   <si>
@@ -101,6 +107,21 @@
   </si>
   <si>
     <t>2018-10-15</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
   </si>
 </sst>
 </file>
@@ -458,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,805 +504,1129 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>782.9100000000001</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>724.74</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>797.9200000000001</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>751.6900000000001</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>767.3</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>751.6900000000001</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>841.0699999999999</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>695.36</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>482.37</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>576.6700000000001</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>649.6600000000001</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>575.5799999999999</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>576.96</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>651.6900000000001</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F15">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>659.9200000000001</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F16">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B17">
         <v>685.9100000000001</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B18">
         <v>796.4000000000001</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F18">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B19">
         <v>782.9100000000001</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F19">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B20">
         <v>724.74</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F20">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B21">
         <v>797.9200000000001</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F21">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>751.6900000000001</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F22">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B23">
         <v>767.3</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F23">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B24">
         <v>751.6900000000001</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F24">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B25">
         <v>841.0699999999999</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F25">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B26">
-        <v>959.23</v>
+        <v>701.38</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F26">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B27">
-        <v>987.49</v>
+        <v>701.4400000000001</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F27">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B28">
-        <v>1042.8</v>
+        <v>670.5799999999999</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F28">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B29">
-        <v>791.74</v>
+        <v>1013.31</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F29">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B30">
+        <v>701.6700000000001</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30">
+        <v>30</v>
+      </c>
+      <c r="G30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31">
+        <v>701.6700000000001</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>1004.67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33">
         <v>695.36</v>
       </c>
-      <c r="C30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31">
-        <v>575.5799999999999</v>
-      </c>
-      <c r="C31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32">
-        <v>482.37</v>
-      </c>
-      <c r="C32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33">
-        <v>576.6700000000001</v>
-      </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F33">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B34">
-        <v>649.6600000000001</v>
+        <v>575.5799999999999</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E34" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F34">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B35">
-        <v>576.6700000000001</v>
+        <v>482.37</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E35" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F35">
         <v>60</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B36">
-        <v>576.73</v>
+        <v>576.6700000000001</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E36" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F36">
         <v>60</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B37">
+        <v>649.6600000000001</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37">
+        <v>60</v>
+      </c>
+      <c r="G37" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38">
+        <v>576.6700000000001</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38">
+        <v>60</v>
+      </c>
+      <c r="G38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39">
+        <v>576.73</v>
+      </c>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39">
+        <v>60</v>
+      </c>
+      <c r="G39" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40">
         <v>652.6900000000001</v>
       </c>
-      <c r="C37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" t="s">
-        <v>28</v>
-      </c>
-      <c r="F37">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38">
-        <v>835.9200000000001</v>
-      </c>
-      <c r="C38" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" t="s">
-        <v>28</v>
-      </c>
-      <c r="F38">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39">
-        <v>652.6900000000001</v>
-      </c>
-      <c r="C39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" t="s">
-        <v>28</v>
-      </c>
-      <c r="F39">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40">
-        <v>703.0799999999999</v>
-      </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E40" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F40">
         <v>90</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" t="s">
+        <v>34</v>
+      </c>
+      <c r="H40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>10</v>
       </c>
       <c r="B41">
-        <v>879.1700000000001</v>
+        <v>835.9200000000001</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E41" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F41">
         <v>90</v>
+      </c>
+      <c r="G41" t="s">
+        <v>34</v>
+      </c>
+      <c r="H41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42">
+        <v>652.6900000000001</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42">
+        <v>90</v>
+      </c>
+      <c r="G42" t="s">
+        <v>34</v>
+      </c>
+      <c r="H42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <v>703.0799999999999</v>
+      </c>
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43">
+        <v>90</v>
+      </c>
+      <c r="G43" t="s">
+        <v>34</v>
+      </c>
+      <c r="H43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44">
+        <v>879.1700000000001</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44">
+        <v>90</v>
+      </c>
+      <c r="G44" t="s">
+        <v>34</v>
+      </c>
+      <c r="H44" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
